--- a/data/HBGDki-tab1-shell.xlsx
+++ b/data/HBGDki-tab1-shell.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\HBGDki\ki-longitudinal-manuscripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B4A41DF4-1691-4D0D-AFA4-1847B4011CE4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4360562C-CB65-4FDC-B99C-3C54D1C4249D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9114" yWindow="0" windowWidth="13902" windowHeight="12210"/>
+    <workbookView xWindow="11328" yWindow="936" windowWidth="11106" windowHeight="9828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HBGDki-tab1-shell" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -571,7 +579,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1656,10 +1664,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -3106,38 +3116,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/EE?preview=Promising_Biomarkers_of_Environmental_Enteric_Dysf.pdf"/>
-    <hyperlink ref="H4" r:id="rId2" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/Respak?preview=Ali_et_al-2016-Journal_of_Medical_Virology.pdf"/>
-    <hyperlink ref="H6" r:id="rId3" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/mal-ed?preview=Shrestha+et+al+2014+Clin+Infect+Dis+NPL.pdf"/>
-    <hyperlink ref="H7" r:id="rId4" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/CMC-V-BCS-2002 (Vellore Rotavirus)?preview=Sarkar+et+al+2013+PlosOne.PDF"/>
-    <hyperlink ref="H8" r:id="rId5" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/mal-ed?preview=John+et+al+2014+Clin+Infect+Dis+IND.pdf"/>
-    <hyperlink ref="H9" r:id="rId6" display="https://www.dropbox.com/preview/HBGDki documentation/ghap study doc folders/TDC (Vellore Bottled Water)/Sarkar et al. 2013 BMC Public Health.pdf?role=personal"/>
-    <hyperlink ref="H10" r:id="rId7" display="https://www.dropbox.com/home/HBGDki documentation/ghap study doc folders/CMIN/Bangladesh?preview=Pathela+et+al+2006+Acta+Paediatrica.pdf"/>
-    <hyperlink ref="H11" r:id="rId8" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/mal-ed?preview=Ahmed+et+al+2014+Clin+Infect+Dis.pdf"/>
-    <hyperlink ref="H12" r:id="rId9" display="https://www.dropbox.com/home/HBGDki documentation/ghap study doc folders/Provide?preview=Kirkpatrick+et+al+2015+Am+J+Trop+Med+Hyg.pdf"/>
-    <hyperlink ref="H13" r:id="rId10" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/SAS-FoodSuppl?preview=Bhandari+et+al+2001+J+Nutri.pdf"/>
-    <hyperlink ref="H14" r:id="rId11" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/SAS-compfeeding?preview=Bhandari+et+al+2004+J+Nutri.pdf"/>
-    <hyperlink ref="H15" r:id="rId12" display="https://www.dropbox.com/home/HBGDki documentation/ghap study doc folders/COHORTS/India?preview=Bhargava+et+al+2009+NEJM.pdf"/>
-    <hyperlink ref="H17" r:id="rId13" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/Jivita-4?preview=Christian+2015+IJE+.pdf"/>
-    <hyperlink ref="H18" r:id="rId14" display="https://www.dropbox.com/home/HBGDki documentation/ghap study doc folders/Jivita 3?preview=Christian+et+al+2016+AJCN.pdf"/>
-    <hyperlink ref="H19" r:id="rId15" display="https://www.dropbox.com/home/HBGDki documentation/ghap study doc folders/NIH-Crypto?preview=Steiner+et+al+2018+Clin+Infect+Dis.pdf"/>
-    <hyperlink ref="H20" r:id="rId16" display="https://www.dropbox.com/home/HBGDki documentation/ghap study doc folders/COHORTS/Philippines?preview=Adair+2007+Am+J+Hum+Biol.pdf"/>
-    <hyperlink ref="H22" r:id="rId17" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/mal-ed?preview=Mduma+et+al+2014+Clin+Infect+Dis+TZN.pdf"/>
-    <hyperlink ref="H23" r:id="rId18" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/Tanzania Child 2?preview=Locks+et+al+Am+J+Clin+Nutr+2016.pdf"/>
-    <hyperlink ref="H24" r:id="rId19" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/mal-ed?preview=Bessong+et+al+2014+Clin+Infect+Dis+SA.pdf"/>
-    <hyperlink ref="H26" r:id="rId20" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/ZVitambo?preview=Malaba+2005+Am+J+Clin+Nutr.pdf"/>
-    <hyperlink ref="H27" r:id="rId21" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/iLiNS-Dyad-M?preview=Ashorn+et+al+2015+J.+Nutr.pdf"/>
-    <hyperlink ref="H28" r:id="rId22" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/iLiNS-Zinc?preview=Hess+et+al+2015+PlosOne.PDF"/>
-    <hyperlink ref="H30" r:id="rId23" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/mal-ed?preview=Yori+et+al+2014+Clin+Infect+Dis+PER.pdf"/>
-    <hyperlink ref="H31" r:id="rId24" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/CONTENT?preview=Jaganath+et+al+2014+Helicobacter.pdf"/>
-    <hyperlink ref="H32" r:id="rId25" display="https://www.dropbox.com/home/HBGDki documentation/ghap study doc folders/Guatemala BSC/docs?preview=Begin+bovine+serum+micronut+growth+Guat+EJCN2008.pdf"/>
-    <hyperlink ref="H33" r:id="rId26" display="https://www.dropbox.com/home/HBGDki documentation/ghap study doc folders/mal-ed?preview=Lima+et+al+2014+Clin+Infect+Dis.pdf"/>
-    <hyperlink ref="H34" r:id="rId27" display="https://www.dropbox.com/home/HBGDki documentation/ghap study doc folders/COHORTS/Guatemala?preview=Habicht+et+al+1995+J+Nutr.pdf"/>
-    <hyperlink ref="H36" r:id="rId28" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/PROBIT?preview=Kramer+et+al+2001+JAMA.pdf"/>
-    <hyperlink ref="H38" r:id="rId29" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/Burkina Faso Zn?preview=Becquey+et+al+2016+J+Nutr.pdf"/>
-    <hyperlink ref="H39" r:id="rId30" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/Vitamin-A?preview=WHO+CHD+Vitamin+A+Group+1998+Lancet.pdf"/>
-    <hyperlink ref="H40" r:id="rId31" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/iLiNS-Dose?preview=Phuka+et+al+2008+Arch+Pediatr+Adolesc+Med.pdf"/>
-    <hyperlink ref="H41" r:id="rId32" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/iLiNS-Dyad-M?preview=Ashorn+et+al+2015+J.+Nutr.pdf"/>
+    <hyperlink ref="H3" r:id="rId1" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/EE?preview=Promising_Biomarkers_of_Environmental_Enteric_Dysf.pdf" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H4" r:id="rId2" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/Respak?preview=Ali_et_al-2016-Journal_of_Medical_Virology.pdf" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H6" r:id="rId3" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/mal-ed?preview=Shrestha+et+al+2014+Clin+Infect+Dis+NPL.pdf" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H7" r:id="rId4" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/CMC-V-BCS-2002 (Vellore Rotavirus)?preview=Sarkar+et+al+2013+PlosOne.PDF" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H8" r:id="rId5" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/mal-ed?preview=John+et+al+2014+Clin+Infect+Dis+IND.pdf" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H9" r:id="rId6" display="https://www.dropbox.com/preview/HBGDki documentation/ghap study doc folders/TDC (Vellore Bottled Water)/Sarkar et al. 2013 BMC Public Health.pdf?role=personal" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H10" r:id="rId7" display="https://www.dropbox.com/home/HBGDki documentation/ghap study doc folders/CMIN/Bangladesh?preview=Pathela+et+al+2006+Acta+Paediatrica.pdf" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H11" r:id="rId8" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/mal-ed?preview=Ahmed+et+al+2014+Clin+Infect+Dis.pdf" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H12" r:id="rId9" display="https://www.dropbox.com/home/HBGDki documentation/ghap study doc folders/Provide?preview=Kirkpatrick+et+al+2015+Am+J+Trop+Med+Hyg.pdf" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H13" r:id="rId10" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/SAS-FoodSuppl?preview=Bhandari+et+al+2001+J+Nutri.pdf" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H14" r:id="rId11" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/SAS-compfeeding?preview=Bhandari+et+al+2004+J+Nutri.pdf" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H15" r:id="rId12" display="https://www.dropbox.com/home/HBGDki documentation/ghap study doc folders/COHORTS/India?preview=Bhargava+et+al+2009+NEJM.pdf" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H17" r:id="rId13" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/Jivita-4?preview=Christian+2015+IJE+.pdf" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H18" r:id="rId14" display="https://www.dropbox.com/home/HBGDki documentation/ghap study doc folders/Jivita 3?preview=Christian+et+al+2016+AJCN.pdf" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H19" r:id="rId15" display="https://www.dropbox.com/home/HBGDki documentation/ghap study doc folders/NIH-Crypto?preview=Steiner+et+al+2018+Clin+Infect+Dis.pdf" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H20" r:id="rId16" display="https://www.dropbox.com/home/HBGDki documentation/ghap study doc folders/COHORTS/Philippines?preview=Adair+2007+Am+J+Hum+Biol.pdf" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H22" r:id="rId17" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/mal-ed?preview=Mduma+et+al+2014+Clin+Infect+Dis+TZN.pdf" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H23" r:id="rId18" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/Tanzania Child 2?preview=Locks+et+al+Am+J+Clin+Nutr+2016.pdf" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H24" r:id="rId19" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/mal-ed?preview=Bessong+et+al+2014+Clin+Infect+Dis+SA.pdf" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H26" r:id="rId20" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/ZVitambo?preview=Malaba+2005+Am+J+Clin+Nutr.pdf" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H27" r:id="rId21" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/iLiNS-Dyad-M?preview=Ashorn+et+al+2015+J.+Nutr.pdf" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H28" r:id="rId22" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/iLiNS-Zinc?preview=Hess+et+al+2015+PlosOne.PDF" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="H30" r:id="rId23" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/mal-ed?preview=Yori+et+al+2014+Clin+Infect+Dis+PER.pdf" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H31" r:id="rId24" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/CONTENT?preview=Jaganath+et+al+2014+Helicobacter.pdf" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H32" r:id="rId25" display="https://www.dropbox.com/home/HBGDki documentation/ghap study doc folders/Guatemala BSC/docs?preview=Begin+bovine+serum+micronut+growth+Guat+EJCN2008.pdf" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H33" r:id="rId26" display="https://www.dropbox.com/home/HBGDki documentation/ghap study doc folders/mal-ed?preview=Lima+et+al+2014+Clin+Infect+Dis.pdf" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H34" r:id="rId27" display="https://www.dropbox.com/home/HBGDki documentation/ghap study doc folders/COHORTS/Guatemala?preview=Habicht+et+al+1995+J+Nutr.pdf" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H36" r:id="rId28" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/PROBIT?preview=Kramer+et+al+2001+JAMA.pdf" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H38" r:id="rId29" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/Burkina Faso Zn?preview=Becquey+et+al+2016+J+Nutr.pdf" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H39" r:id="rId30" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/Vitamin-A?preview=WHO+CHD+Vitamin+A+Group+1998+Lancet.pdf" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H40" r:id="rId31" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/iLiNS-Dose?preview=Phuka+et+al+2008+Arch+Pediatr+Adolesc+Med.pdf" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H41" r:id="rId32" display="https://www.dropbox.com/home/HBGDki documentation/GHAP Study Doc folders/iLiNS-Dyad-M?preview=Ashorn+et+al+2015+J.+Nutr.pdf" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId33"/>

--- a/data/HBGDki-tab1-shell.xlsx
+++ b/data/HBGDki-tab1-shell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\HBGDki\ki-longitudinal-manuscripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4360562C-CB65-4FDC-B99C-3C54D1C4249D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D39C4A-6E34-4294-A031-C01C3763E4F7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11328" yWindow="936" windowWidth="11106" windowHeight="9828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HBGDki-tab1-shell" sheetId="2" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>Iqbal et al 2018 Nature Scientific Reports</t>
   </si>
   <si>
-    <t>2011 – 2014</t>
-  </si>
-  <si>
     <t>Ali_et_al-2016-Journal_of_Medical_Virology</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>Not yet published</t>
   </si>
   <si>
-    <t>2010 – 2014</t>
-  </si>
-  <si>
     <t>Shrestha et al 2014 Clin Infect Dis NPL</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>John et al 2014 Clin Infect Dis IND</t>
   </si>
   <si>
-    <t>2008 – 2011</t>
-  </si>
-  <si>
     <t>Bangladesh</t>
   </si>
   <si>
@@ -105,15 +96,9 @@
     <t>Pathela et al 2006 Acta Paediatrica</t>
   </si>
   <si>
-    <t>2010 –2014</t>
-  </si>
-  <si>
     <t>Ahmed et al 2014 Clin Infect Dis</t>
   </si>
   <si>
-    <t>2011 –2014</t>
-  </si>
-  <si>
     <t>Individual RCT</t>
   </si>
   <si>
@@ -129,9 +114,6 @@
     <t>Tanzania</t>
   </si>
   <si>
-    <t>2009 – 2014</t>
-  </si>
-  <si>
     <t>Mduma et al 2014 Clin Infect Dis TZN</t>
   </si>
   <si>
@@ -177,9 +159,6 @@
     <t>Baseline, 1, 2, ...8</t>
   </si>
   <si>
-    <t>Begin bovine serum micronut growth Guat EJCN2008</t>
-  </si>
-  <si>
     <t>Brazil</t>
   </si>
   <si>
@@ -264,33 +243,21 @@
     <t>Bhargava et al 2009 NEJM</t>
   </si>
   <si>
-    <t>2008 – 2009</t>
-  </si>
-  <si>
     <t>Birth, 3, 6, ... 12</t>
   </si>
   <si>
-    <t>2012 – 2014</t>
-  </si>
-  <si>
     <t>6, 9, 12, 14, 18</t>
   </si>
   <si>
     <t>Christian et al 2015 IJE</t>
   </si>
   <si>
-    <t>2008 – 2012</t>
-  </si>
-  <si>
     <t>Birth, 1, 3, 6, 12, 24</t>
   </si>
   <si>
     <t>Christian et al 2016 AJCN</t>
   </si>
   <si>
-    <t>2014 – 2017</t>
-  </si>
-  <si>
     <t>Birth, 3, 6, ... 24</t>
   </si>
   <si>
@@ -336,9 +303,6 @@
     <t>Burkina Faso</t>
   </si>
   <si>
-    <t>2010 – 2012</t>
-  </si>
-  <si>
     <t>9, 12, 15, 18</t>
   </si>
   <si>
@@ -381,9 +345,6 @@
     <t>Kattula et al. 2014 BMJ Open</t>
   </si>
   <si>
-    <t>2012 – Ongoing</t>
-  </si>
-  <si>
     <t>Korpe et al. 2016 PLOS NTD</t>
   </si>
   <si>
@@ -393,9 +354,6 @@
     <t>Hennig et al. 2015 IJE</t>
   </si>
   <si>
-    <t>1987 – 1997</t>
-  </si>
-  <si>
     <t>ki1119695-PROBIT</t>
   </si>
   <si>
@@ -574,6 +532,48 @@
   </si>
   <si>
     <t>Biomarkers for EE</t>
+  </si>
+  <si>
+    <t>Begin et al. 2008, EJCN</t>
+  </si>
+  <si>
+    <t>2011 - 2014</t>
+  </si>
+  <si>
+    <t>2012 - Ongoing</t>
+  </si>
+  <si>
+    <t>2010 - 2014</t>
+  </si>
+  <si>
+    <t>2010 - 2012</t>
+  </si>
+  <si>
+    <t>2008 - 2011</t>
+  </si>
+  <si>
+    <t>2010 -2014</t>
+  </si>
+  <si>
+    <t>2011 -2014</t>
+  </si>
+  <si>
+    <t>2008 - 2009</t>
+  </si>
+  <si>
+    <t>2012 - 2014</t>
+  </si>
+  <si>
+    <t>2008 - 2012</t>
+  </si>
+  <si>
+    <t>2014 - 2017</t>
+  </si>
+  <si>
+    <t>2009 - 2014</t>
+  </si>
+  <si>
+    <t>1987 - 1997</t>
   </si>
 </sst>
 </file>
@@ -1667,45 +1667,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" t="s">
-        <v>59</v>
-      </c>
       <c r="K1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1731,7 +1731,7 @@
     </row>
     <row r="3" spans="1:11" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B3" s="3" t="str">
         <f>UPPER(C3)</f>
@@ -1741,10 +1741,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>4</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="4" spans="1:11" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="2" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B41" si="0">UPPER(C4)</f>
@@ -1777,19 +1777,19 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>169</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1803,29 +1803,29 @@
     </row>
     <row r="5" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="2" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>NEPAL</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1839,29 +1839,29 @@
     </row>
     <row r="6" spans="1:11" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>NEPAL</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1875,29 +1875,29 @@
     </row>
     <row r="7" spans="1:11" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="2" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>INDIA</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1911,29 +1911,29 @@
     </row>
     <row r="8" spans="1:11" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>INDIA</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1947,29 +1947,29 @@
     </row>
     <row r="9" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>INDIA</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1983,29 +1983,29 @@
     </row>
     <row r="10" spans="1:11" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="2" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>BANGLADESH</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="H10" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2019,29 +2019,29 @@
     </row>
     <row r="11" spans="1:11" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>BANGLADESH</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2055,29 +2055,29 @@
     </row>
     <row r="12" spans="1:11" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>BANGLADESH</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>BANGLADESH</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="F12" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2091,29 +2091,29 @@
     </row>
     <row r="13" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>INDIA</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -2127,29 +2127,29 @@
     </row>
     <row r="14" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>INDIA</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -2163,29 +2163,29 @@
     </row>
     <row r="15" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>INDIA</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2199,29 +2199,29 @@
     </row>
     <row r="16" spans="1:11" ht="42.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="10" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>BANGLADESH</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -2235,29 +2235,29 @@
     </row>
     <row r="17" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="10" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>BANGLADESH</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="F17" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="H17" s="11" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2271,29 +2271,29 @@
     </row>
     <row r="18" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>BANGLADESH</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -2307,29 +2307,29 @@
     </row>
     <row r="19" spans="1:11" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="2" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>BANGLADESH</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -2343,29 +2343,29 @@
     </row>
     <row r="20" spans="1:11" ht="77.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PHILIPPINES</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="21" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2403,28 +2403,28 @@
     </row>
     <row r="22" spans="1:11" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2438,28 +2438,28 @@
     </row>
     <row r="23" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2473,29 +2473,29 @@
     </row>
     <row r="24" spans="1:11" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SOUTH AFRICA</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2509,29 +2509,29 @@
     </row>
     <row r="25" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>GAMBIA</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -2545,29 +2545,29 @@
     </row>
     <row r="26" spans="1:11" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="10" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ZIMBABWE</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -2581,29 +2581,29 @@
     </row>
     <row r="27" spans="1:11" s="21" customFormat="1" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="10" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MALAWI</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>7</v>
+        <v>169</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="I27" s="21">
         <v>1</v>
@@ -2617,29 +2617,29 @@
     </row>
     <row r="28" spans="1:11" ht="36.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="10" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>BURKINA FASO</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="29" spans="1:11" ht="26.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2677,29 +2677,29 @@
     </row>
     <row r="30" spans="1:11" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PERU</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2713,29 +2713,29 @@
     </row>
     <row r="31" spans="1:11" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PERU</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -2747,31 +2747,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="101.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>GUATEMALA</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -2785,29 +2785,29 @@
     </row>
     <row r="33" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="10" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>BRAZIL</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -2821,29 +2821,29 @@
     </row>
     <row r="34" spans="1:11" ht="77.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34" s="10" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>GUATEMALA</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="35" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A35" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2881,29 +2881,29 @@
     </row>
     <row r="36" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A36" s="10" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="0"/>
         <v>BELARUS</v>
       </c>
       <c r="C36" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>122</v>
-      </c>
       <c r="E36" s="12" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="37" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2941,29 +2941,29 @@
     </row>
     <row r="38" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A38" s="25" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" si="0"/>
         <v>BURKINA FASO</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -2977,29 +2977,29 @@
     </row>
     <row r="39" spans="1:11" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A39" s="29" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B39" s="3" t="str">
         <f t="shared" si="0"/>
         <v>INDIA</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3013,29 +3013,29 @@
     </row>
     <row r="40" spans="1:11" ht="86.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A40" s="29" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B40" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MALAWI</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G40" s="30" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -3049,29 +3049,29 @@
     </row>
     <row r="41" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A41" s="29" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B41" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MALAWI</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G41" s="30" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="8" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B42" s="8"/>
       <c r="I42">
